--- a/LplcSimulator/LplcSimulator/opendatas/2018_6_1_7-8.xlsx
+++ b/LplcSimulator/LplcSimulator/opendatas/2018_6_1_7-8.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -376,7 +377,7 @@
   <dimension ref="A1:M1140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1105" workbookViewId="0">
-      <selection activeCell="O1127" sqref="O1127"/>
+      <selection activeCell="V1118" sqref="V1118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/LplcSimulator/LplcSimulator/opendatas/2018_6_1_7-8.xlsx
+++ b/LplcSimulator/LplcSimulator/opendatas/2018_6_1_7-8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\opendatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcSimulator\LplcSimulator\LplcSimulator\opendatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1140"/>
+  <dimension ref="A1:M1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1105" workbookViewId="0">
-      <selection activeCell="V1118" sqref="V1118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26874,9 +26873,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1142" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D1142">
+        <f>MAX(D1:E1140)</f>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>